--- a/regions/6/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
+++ b/regions/6/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>_</t>
   </si>
@@ -234,7 +234,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:P14"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -542,7 +542,7 @@
     <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="25.5" customHeight="1">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
@@ -561,8 +561,10 @@
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.75">
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -579,7 +581,7 @@
       <c r="N2" s="2"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="6"/>
       <c r="B3" s="18">
         <v>2006</v>
@@ -626,8 +628,14 @@
       <c r="P3" s="19">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75">
+      <c r="Q3" s="19">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="19">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -676,8 +684,14 @@
       <c r="P4" s="13">
         <v>36.299999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75">
+      <c r="Q4" s="13">
+        <v>43.4</v>
+      </c>
+      <c r="R4" s="13">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75">
       <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
@@ -726,8 +740,14 @@
       <c r="P5" s="12">
         <v>39.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75">
+      <c r="Q5" s="12">
+        <v>43.5</v>
+      </c>
+      <c r="R5" s="12">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75">
       <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
@@ -776,8 +796,14 @@
       <c r="P6" s="14">
         <v>1725</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75">
+      <c r="Q6" s="14">
+        <v>1745</v>
+      </c>
+      <c r="R6" s="14">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
@@ -826,8 +852,14 @@
       <c r="P7" s="14">
         <v>1581</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75">
+      <c r="Q7" s="14">
+        <v>1691</v>
+      </c>
+      <c r="R7" s="14">
+        <v>1371.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -876,8 +908,14 @@
       <c r="P8" s="12">
         <v>411.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75">
+      <c r="Q8" s="12">
+        <v>388</v>
+      </c>
+      <c r="R8" s="12">
+        <v>487.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -926,8 +964,14 @@
       <c r="P9" s="12">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75">
+      <c r="Q9" s="12">
+        <v>22.2</v>
+      </c>
+      <c r="R9" s="12">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -976,8 +1020,14 @@
       <c r="P10" s="15">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75">
+      <c r="Q10" s="15">
+        <v>7.9255699999999996</v>
+      </c>
+      <c r="R10" s="15">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -1026,8 +1076,14 @@
       <c r="P11" s="15">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75">
+      <c r="Q11" s="15">
+        <v>21.4</v>
+      </c>
+      <c r="R11" s="15">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
@@ -1076,8 +1132,14 @@
       <c r="P12" s="12">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75">
+      <c r="Q12" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="R12" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75">
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
@@ -1126,8 +1188,14 @@
       <c r="P13" s="12">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="30">
+      <c r="Q13" s="12">
+        <v>26.5</v>
+      </c>
+      <c r="R13" s="12">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="30">
       <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
@@ -1176,8 +1244,14 @@
       <c r="P14" s="15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75">
+      <c r="Q14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.75">
       <c r="A15" s="8"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1194,8 +1268,9 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="4"/>
-    </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" ht="13.5">
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:18" s="1" customFormat="1" ht="13.5">
       <c r="A16" s="9" t="s">
         <v>2</v>
       </c>
@@ -1214,6 +1289,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:16" s="1" customFormat="1" ht="13.5">
       <c r="A17" s="9" t="s">
@@ -1272,7 +1348,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/regions/6/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
+++ b/regions/6/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>_</t>
   </si>
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -542,7 +542,7 @@
     <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="25.5" customHeight="1">
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
@@ -564,7 +564,7 @@
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75">
+    <row r="2" spans="1:19" ht="15.75">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -581,7 +581,7 @@
       <c r="N2" s="2"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="6"/>
       <c r="B3" s="18">
         <v>2006</v>
@@ -634,8 +634,11 @@
       <c r="R3" s="19">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75">
+      <c r="S3" s="19">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -690,8 +693,11 @@
       <c r="R4" s="13">
         <v>50.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75">
+      <c r="S4" s="13">
+        <v>89.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75">
       <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
@@ -746,8 +752,11 @@
       <c r="R5" s="12">
         <v>50.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75">
+      <c r="S5" s="12">
+        <v>89.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75">
       <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
@@ -802,8 +811,11 @@
       <c r="R6" s="14">
         <v>1757</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75">
+      <c r="S6" s="14">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
@@ -858,8 +870,11 @@
       <c r="R7" s="14">
         <v>1371.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75">
+      <c r="S7" s="14">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -914,8 +929,11 @@
       <c r="R8" s="12">
         <v>487.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75">
+      <c r="S8" s="12">
+        <v>683.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -970,8 +988,11 @@
       <c r="R9" s="12">
         <v>28.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75">
+      <c r="S9" s="12">
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -1026,8 +1047,11 @@
       <c r="R10" s="15">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75">
+      <c r="S10" s="15">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -1082,8 +1106,11 @@
       <c r="R11" s="15">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75">
+      <c r="S11" s="15">
+        <v>48.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
@@ -1138,8 +1165,11 @@
       <c r="R12" s="12">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75">
+      <c r="S12" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75">
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
@@ -1194,8 +1224,11 @@
       <c r="R13" s="12">
         <v>30.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="30">
+      <c r="S13" s="12">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="30">
       <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
@@ -1250,8 +1283,11 @@
       <c r="R14" s="15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="15.75">
+      <c r="S14" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75">
       <c r="A15" s="8"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1270,7 +1306,7 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
     </row>
-    <row r="16" spans="1:18" s="1" customFormat="1" ht="13.5">
+    <row r="16" spans="1:19" s="1" customFormat="1" ht="13.5">
       <c r="A16" s="9" t="s">
         <v>2</v>
       </c>
